--- a/inst/extdata/Reference_masses_peak_annotation.xlsx
+++ b/inst/extdata/Reference_masses_peak_annotation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.IPA\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ABCD_project_SFB\IDSL.IPA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,49 +356,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>53.018529999999998</v>
       </c>
       <c r="B2">
         <v>0.95099999999999996</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>61.00759</v>
       </c>
       <c r="B3">
         <v>0.96099999999999997</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
